--- a/resources/AnnualProfits.xlsx
+++ b/resources/AnnualProfits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\Tiberium\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDC75E3-23D5-42B0-9EB2-07E5EF0291C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D528D5E-2C0D-4946-8F7A-ECE7F55EF1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1752" windowWidth="17280" windowHeight="8964" xr2:uid="{B9EF00C9-B56F-44F5-9317-34551684BE0C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9EF00C9-B56F-44F5-9317-34551684BE0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>$10380</t>
   </si>
   <si>
-    <t>$10725</t>
-  </si>
-  <si>
     <t>-$143.55</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>-$1880</t>
   </si>
   <si>
-    <t>-$700</t>
-  </si>
-  <si>
     <t>-$156.45</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>-$1078</t>
   </si>
   <si>
-    <t>-$542</t>
-  </si>
-  <si>
     <t>Journal Fee (RM)</t>
   </si>
   <si>
@@ -91,6 +82,15 @@
   </si>
   <si>
     <t>Profits (SGD)</t>
+  </si>
+  <si>
+    <t>$18175</t>
+  </si>
+  <si>
+    <t>-$1000</t>
+  </si>
+  <si>
+    <t>-$1391.22</t>
   </si>
 </sst>
 </file>
@@ -472,12 +472,13 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -485,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -502,10 +503,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -516,10 +517,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -530,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -544,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -558,24 +559,24 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2021</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
